--- a/todo.xlsx
+++ b/todo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -148,12 +148,6 @@
   </si>
   <si>
     <t>03.08.2014: Nord-/ Südhimmel prüfen.</t>
-  </si>
-  <si>
-    <t>outline-Attribut für BodyAreal</t>
-  </si>
-  <si>
-    <t>outline-Attribut für CatalogDS9</t>
   </si>
   <si>
     <t>Optional, Default-Wert true.</t>
@@ -211,10 +205,37 @@
     <t>fov-Attribut für Circle-Elemente prüfen/ einführen.</t>
   </si>
   <si>
-    <t>Verwendung von JTS anstell von ListCutter prüfen/ einführen.</t>
-  </si>
-  <si>
     <t>Skalenstriche vor DialDay nicht orthogonal zur Tangente</t>
+  </si>
+  <si>
+    <t>09.09.2014: Für Catalog*Record umgesetzt.</t>
+  </si>
+  <si>
+    <t>contour-Attribut für CatalogDS9</t>
+  </si>
+  <si>
+    <t>contour-Attribut für BodyAreal</t>
+  </si>
+  <si>
+    <t>Methode directionOfScaleMarkValue in BodySun implementiert.</t>
+  </si>
+  <si>
+    <t>09.09.2014: Reproduzierbar mit plantdials.xml.</t>
+  </si>
+  <si>
+    <t>peer-Parameter für Konstruktor Body* prüfen/ entfernen</t>
+  </si>
+  <si>
+    <t>Graduation* auf ein Element reduzieren</t>
+  </si>
+  <si>
+    <t>Differenzierung von Parametern für GraduationSpan, -Half, -Full über name-Attribut.</t>
+  </si>
+  <si>
+    <t>13.09.2014: division-Attribut von GraduationSpan nach DialDegree ändern.</t>
+  </si>
+  <si>
+    <t>Verwendung von JTS anstelle von ListCutter prüfen/ einführen.</t>
   </si>
 </sst>
 </file>
@@ -591,7 +612,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,457 +645,493 @@
     </row>
     <row r="5" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D5" s="6">
+        <v>1030</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="3">
+        <v>41893</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="6">
         <v>1028</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="3">
         <v>41891</v>
       </c>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="6">
-        <v>1025</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="3">
-        <v>41869</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
+        <v>41895</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D7" s="6">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H7" s="3">
-        <v>41854</v>
+        <v>41891</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D8" s="6">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="3">
-        <v>41854</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+        <v>41869</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D9" s="6">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H9" s="3">
         <v>41854</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D10" s="6">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3">
-        <v>41841</v>
+        <v>41854</v>
+      </c>
+      <c r="I10" s="2">
+        <v>41891</v>
       </c>
     </row>
     <row r="11" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D11" s="6">
+        <v>1024</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3">
+        <v>41854</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D12" s="6">
+        <v>1026</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="3">
+        <v>41841</v>
+      </c>
+      <c r="I12" s="2">
+        <v>41901</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="6">
         <v>1027</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="E13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="3">
         <v>41841</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D12" s="6">
-        <v>1019</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="3">
-        <v>41724</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D13" s="6">
-        <v>1020</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="3">
-        <v>41724</v>
       </c>
     </row>
     <row r="14" spans="4:9" ht="45" x14ac:dyDescent="0.25">
       <c r="D14" s="6">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H14" s="3">
         <v>41724</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:9" ht="45" x14ac:dyDescent="0.25">
       <c r="D15" s="6">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="H15" s="3">
-        <v>41576</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+        <v>41724</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" ht="45" x14ac:dyDescent="0.25">
       <c r="D16" s="6">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H16" s="3">
-        <v>41484</v>
+        <v>41724</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" s="6">
+        <v>1018</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="3">
+        <v>41576</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="6">
+        <v>1017</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="3">
+        <v>41484</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="6">
         <v>1016</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H19" s="3">
         <v>41363</v>
       </c>
     </row>
-    <row r="18" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D18" s="6">
+    <row r="20" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D20" s="6">
         <v>1015</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H20" s="3">
         <v>41362</v>
       </c>
     </row>
-    <row r="19" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D19" s="6">
+    <row r="21" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" s="6">
         <v>1014</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H21" s="3">
         <v>41229</v>
       </c>
     </row>
-    <row r="20" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D20" s="6">
+    <row r="22" spans="4:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D22" s="6">
         <v>1013</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H22" s="3">
         <v>41092</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="6">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="6">
         <v>1012</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H23" s="3">
         <v>41028</v>
       </c>
     </row>
-    <row r="22" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D22" s="6">
+    <row r="24" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D24" s="6">
         <v>1010</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H24" s="3">
         <v>40959</v>
       </c>
     </row>
-    <row r="23" spans="4:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D23" s="6">
+    <row r="25" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D25" s="6">
         <v>1011</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="F25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="3">
         <v>40959</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="6">
-        <v>1008</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="3">
-        <v>40956</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D25" s="6">
-        <v>1009</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="3">
-        <v>40956</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D26" s="6">
+        <v>1008</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="3">
+        <v>40956</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D27" s="6">
+        <v>1009</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="3">
+        <v>40956</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="6">
         <v>1007</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H28" s="3">
         <v>40947</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D27" s="6">
-        <v>1006</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="3">
-        <v>40869</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="D28" s="6">
-        <v>1005</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="3">
-        <v>40866</v>
       </c>
     </row>
     <row r="29" spans="4:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D29" s="6">
+        <v>1006</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="3">
+        <v>40869</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="D30" s="6">
+        <v>1005</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="3">
+        <v>40866</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D31" s="6">
         <v>1004</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H31" s="3">
         <v>40794</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="6">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="6">
         <v>1003</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H32" s="3">
         <v>40763</v>
       </c>
     </row>
-    <row r="31" spans="4:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D31" s="6">
+    <row r="33" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D33" s="6">
         <v>1002</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H33" s="3">
         <v>40506</v>
       </c>
     </row>
-    <row r="32" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D32" s="6">
+    <row r="34" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D34" s="6">
         <v>1001</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H34" s="3">
         <v>39122</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="6">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="6">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D35" s="6">
         <v>1031</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D36" s="6">
         <v>1032</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D37" s="6">
         <v>1033</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D38" s="6">
         <v>1034</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D39" s="6">
         <v>1035</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D40" s="6">
         <v>1036</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D41" s="6">
         <v>1037</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D42" s="6">
         <v>1038</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D43" s="6">
         <v>1039</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D44" s="6">
         <v>1040</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D45" s="6">
         <v>1041</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D46" s="6">
         <v>1042</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D47" s="6">
         <v>1043</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D48" s="6">
         <v>1044</v>
       </c>
@@ -1102,18 +1159,18 @@
   <sheetData>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>0.72</v>
@@ -1125,7 +1182,7 @@
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>0.96</v>
@@ -1136,7 +1193,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <f>(E7-E6)/(D10-1)</f>
@@ -1145,7 +1202,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -1153,13 +1210,13 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -229,13 +229,51 @@
     <t>Graduation* auf ein Element reduzieren</t>
   </si>
   <si>
-    <t>Differenzierung von Parametern für GraduationSpan, -Half, -Full über name-Attribut.</t>
-  </si>
-  <si>
-    <t>13.09.2014: division-Attribut von GraduationSpan nach DialDegree ändern.</t>
-  </si>
-  <si>
     <t>Verwendung von JTS anstelle von ListCutter prüfen/ einführen.</t>
+  </si>
+  <si>
+    <t>Circle* auf JTS umstellen</t>
+  </si>
+  <si>
+    <t>Klasse ist Alpha, Omega optional, Mapping wegen Namenskonflikt mit Circle* einführen.</t>
+  </si>
+  <si>
+    <t>Alpha/ Omega optional, default 0/ 359 bzw. -90/ 90 (prefs), mapping wegen Namenskonflikt mit Epoch einführen</t>
+  </si>
+  <si>
+    <t>Klasse Epoch optimieren</t>
+  </si>
+  <si>
+    <t>Wertebereiche für A/ O in Circle* einführen</t>
+  </si>
+  <si>
+    <t>CircleType Begin/ End nach Alpha/ Omega ändern</t>
+  </si>
+  <si>
+    <t>Element-Class-mapping, beide optional, default aus preferences.</t>
+  </si>
+  <si>
+    <t>Differenzierung von preferences für GraduationSpan, -Half, -Full über name-Attribut, division-Attribut von GraduationSpan nach DialDegree ändern.</t>
+  </si>
+  <si>
+    <t>19.09.2014: fieldofview-Attribut für CircleType eingeführt.</t>
+  </si>
+  <si>
+    <t>Graduation posistion/ direction optimieren</t>
+  </si>
+  <si>
+    <t>12.10.2014: Verschiedene Optimierungen (Namen, rotate, apply() in Graduation, for-Schleife in DialDeg). Graduation umbenannt in Scaleline.</t>
+  </si>
+  <si>
+    <t>Bezeichnungen prüfen, rotate in Graduation und directionOfScaleMarkN prüfen, Aufruf von direction Of* in postionOf* prüfen. Graduation umbenennen in Scaleline.
+Startpunkt für Skalenstrich vor Aufruf von Scaleline einstellen, Koordinatensystem mit x-Achse parallel zum Skalenstrich ausrichten.</t>
+  </si>
+  <si>
+    <t>-180 bis 360 excl. Im Modell, ! 360&gt;O-A in Applikation.
+Verwendung von MapTo0To360Range in bspw, CircleParallel.list() prüfen; sind u.U. bsolet.</t>
+  </si>
+  <si>
+    <t>16.09.2014: Notwendig für klassenspezifische Attribute, bspw. type, die nicht im Scope der Parent-Klasse BodyOrbitalType liegen.</t>
   </si>
 </sst>
 </file>
@@ -287,7 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -302,6 +339,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,530 +649,595 @@
   <dimension ref="D4:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.140625" style="7"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
     <col min="5" max="7" width="45.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="11.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="4:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D5" s="6">
+    <row r="5" spans="4:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="D5" s="5">
+        <v>1035</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="2">
+        <v>41924</v>
+      </c>
+      <c r="I5" s="2">
+        <v>41928</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
+        <v>1033</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="2">
+        <v>41918</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <v>1034</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2">
+        <v>41918</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="5">
+        <v>1031</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="2">
+        <v>41917</v>
+      </c>
+      <c r="I8" s="2">
+        <v>41928</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D9" s="5">
+        <v>1032</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="2">
+        <v>41917</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D10" s="5">
         <v>1030</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="2">
+        <v>41893</v>
+      </c>
+      <c r="I10" s="2">
+        <v>41924</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="5">
+        <v>1028</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="2">
+        <v>41891</v>
+      </c>
+      <c r="I11" s="2">
+        <v>41895</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D12" s="5">
+        <v>1029</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="2">
+        <v>41891</v>
+      </c>
+      <c r="I12" s="2">
+        <v>41928</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="5">
+        <v>1025</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="2">
+        <v>41869</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="5">
+        <v>1022</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="2">
+        <v>41854</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="5">
+        <v>1023</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="2">
+        <v>41854</v>
+      </c>
+      <c r="I15" s="2">
+        <v>41891</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="5">
+        <v>1024</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="2">
+        <v>41854</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="5">
+        <v>1026</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="3">
-        <v>41893</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D6" s="6">
-        <v>1028</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="3">
-        <v>41891</v>
-      </c>
-      <c r="I6" s="2">
-        <v>41895</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D7" s="6">
-        <v>1029</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="3">
-        <v>41891</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="6">
-        <v>1025</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="3">
-        <v>41869</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="6">
-        <v>1022</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="3">
-        <v>41854</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="6">
-        <v>1023</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="3">
-        <v>41854</v>
-      </c>
-      <c r="I10" s="2">
-        <v>41891</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D11" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="3">
-        <v>41854</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D12" s="6">
-        <v>1026</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="H17" s="2">
         <v>41841</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I17" s="2">
         <v>41901</v>
       </c>
     </row>
-    <row r="13" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D13" s="6">
+    <row r="18" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="5">
         <v>1027</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="3">
+      <c r="G18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="2">
         <v>41841</v>
       </c>
-    </row>
-    <row r="14" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D14" s="6">
+      <c r="I18" s="2">
+        <v>41901</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D19" s="5">
         <v>1019</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H19" s="2">
         <v>41724</v>
       </c>
     </row>
-    <row r="15" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D15" s="6">
+    <row r="20" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D20" s="5">
         <v>1020</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H20" s="2">
         <v>41724</v>
       </c>
     </row>
-    <row r="16" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D16" s="6">
+    <row r="21" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D21" s="5">
         <v>1021</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H21" s="2">
         <v>41724</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="6">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="5">
         <v>1018</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H22" s="2">
         <v>41576</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="6">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="5">
         <v>1017</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H23" s="2">
         <v>41484</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="6">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="5">
         <v>1016</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H24" s="2">
         <v>41363</v>
       </c>
     </row>
-    <row r="20" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D20" s="6">
+    <row r="25" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="5">
         <v>1015</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H25" s="2">
         <v>41362</v>
       </c>
     </row>
-    <row r="21" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D21" s="6">
+    <row r="26" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D26" s="5">
         <v>1014</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H26" s="2">
         <v>41229</v>
       </c>
     </row>
-    <row r="22" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D22" s="6">
+    <row r="27" spans="4:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D27" s="5">
         <v>1013</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H27" s="2">
         <v>41092</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="6">
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="5">
         <v>1012</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H28" s="2">
         <v>41028</v>
       </c>
     </row>
-    <row r="24" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D24" s="6">
+    <row r="29" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D29" s="5">
         <v>1010</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H29" s="2">
         <v>40959</v>
       </c>
     </row>
-    <row r="25" spans="4:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D25" s="6">
+    <row r="30" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D30" s="5">
         <v>1011</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H30" s="2">
         <v>40959</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="6">
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="5">
         <v>1008</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H31" s="2">
         <v>40956</v>
       </c>
     </row>
-    <row r="27" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D27" s="6">
+    <row r="32" spans="4:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D32" s="5">
         <v>1009</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H32" s="2">
         <v>40956</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="6">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="5">
         <v>1007</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H33" s="2">
         <v>40947</v>
       </c>
     </row>
-    <row r="29" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D29" s="6">
+    <row r="34" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D34" s="5">
         <v>1006</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H34" s="2">
         <v>40869</v>
       </c>
     </row>
-    <row r="30" spans="4:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="D30" s="6">
+    <row r="35" spans="4:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="D35" s="5">
         <v>1005</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H35" s="2">
         <v>40866</v>
       </c>
     </row>
-    <row r="31" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D31" s="6">
+    <row r="36" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D36" s="5">
         <v>1004</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H36" s="2">
         <v>40794</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="6">
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37" s="5">
         <v>1003</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H37" s="2">
         <v>40763</v>
       </c>
     </row>
-    <row r="33" spans="4:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D33" s="6">
+    <row r="38" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D38" s="5">
         <v>1002</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H38" s="2">
         <v>40506</v>
       </c>
     </row>
-    <row r="34" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D34" s="6">
+    <row r="39" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D39" s="5">
         <v>1001</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H39" s="2">
         <v>39122</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D35" s="6">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D36" s="6">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="6">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="6">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="6">
-        <v>1035</v>
-      </c>
-    </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>1036</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>1037</v>
       </c>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>1038</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>1039</v>
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>1040</v>
       </c>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>1041</v>
       </c>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>1042</v>
       </c>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>1043</v>
       </c>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>1044</v>
       </c>
     </row>
@@ -1223,7 +1328,7 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f>D$6+(D$7-D$6)*G14</f>
         <v>0.72</v>
       </c>
@@ -1236,7 +1341,7 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f t="shared" ref="F15:F25" si="0">D$6+(D$7-D$6)*G15</f>
         <v>0.7823129545213815</v>
       </c>
@@ -1249,7 +1354,7 @@
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>0.82104127505777547</v>
       </c>
@@ -1262,7 +1367,7 @@
       <c r="E17">
         <v>3</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <f t="shared" si="0"/>
         <v>0.84921381875006041</v>
       </c>
@@ -1275,7 +1380,7 @@
       <c r="E18">
         <v>4</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f t="shared" si="0"/>
         <v>0.87136924146659811</v>
       </c>
@@ -1288,7 +1393,7 @@
       <c r="E19">
         <v>5</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <f t="shared" si="0"/>
         <v>0.88963088204351404</v>
       </c>
@@ -1301,7 +1406,7 @@
       <c r="E20">
         <v>6</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <f t="shared" si="0"/>
         <v>0.90516496115631129</v>
       </c>
@@ -1314,7 +1419,7 @@
       <c r="E21">
         <v>7</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <f t="shared" si="0"/>
         <v>0.91868136829746028</v>
       </c>
@@ -1327,7 +1432,7 @@
       <c r="E22">
         <v>8</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <f t="shared" si="0"/>
         <v>0.93064449773228375</v>
       </c>
@@ -1340,7 +1445,7 @@
       <c r="E23">
         <v>9</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <f t="shared" si="0"/>
         <v>0.94137483412495926</v>
       </c>
@@ -1353,7 +1458,7 @@
       <c r="E24">
         <v>10</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <f t="shared" si="0"/>
         <v>0.9511028852698602</v>
       </c>
@@ -1366,7 +1471,7 @@
       <c r="E25">
         <v>11</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>id</t>
   </si>
@@ -274,6 +274,27 @@
   </si>
   <si>
     <t>16.09.2014: Notwendig für klassenspezifische Attribute, bspw. type, die nicht im Scope der Parent-Klasse BodyOrbitalType liegen.</t>
+  </si>
+  <si>
+    <t>PDF quer bei BodySun mit Dial an circle-Attribut</t>
+  </si>
+  <si>
+    <t>Ausgabe in gs korrekt.</t>
+  </si>
+  <si>
+    <t>BodyOrbitalType mit Dial an circle-Attribut und FOV-Intersection implementieren</t>
+  </si>
+  <si>
+    <t>division nur bei baseline="rail" erforderlich.</t>
+  </si>
+  <si>
+    <t>Konzept für Relation von baseline- un ddivision-Attributen von DialType.</t>
+  </si>
+  <si>
+    <t>Konzept für Relation von circle-Attribut und DIalType</t>
+  </si>
+  <si>
+    <t>circle als Attribut von DialType prüfen.</t>
   </si>
 </sst>
 </file>
@@ -649,10 +670,10 @@
   <dimension ref="D4:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,538 +703,571 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="4:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D5" s="5">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H5" s="2">
-        <v>41924</v>
-      </c>
-      <c r="I5" s="2">
-        <v>41928</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" ht="60" x14ac:dyDescent="0.25">
+        <v>41929</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D6" s="5">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H6" s="2">
-        <v>41918</v>
+        <v>41929</v>
       </c>
     </row>
     <row r="7" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D7" s="5">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H7" s="2">
-        <v>41918</v>
+        <v>41929</v>
       </c>
     </row>
     <row r="8" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D8" s="5">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H8" s="2">
-        <v>41917</v>
-      </c>
-      <c r="I8" s="2">
+        <v>41929</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="D9" s="5">
+        <v>1035</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="2">
+        <v>41924</v>
+      </c>
+      <c r="I9" s="2">
         <v>41928</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D9" s="5">
-        <v>1032</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="2">
-        <v>41917</v>
       </c>
     </row>
     <row r="10" spans="4:9" ht="60" x14ac:dyDescent="0.25">
       <c r="D10" s="5">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="H10" s="2">
-        <v>41893</v>
-      </c>
-      <c r="I10" s="2">
-        <v>41924</v>
+        <v>41918</v>
       </c>
     </row>
     <row r="11" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D11" s="5">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H11" s="2">
-        <v>41891</v>
-      </c>
-      <c r="I11" s="2">
-        <v>41895</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+        <v>41918</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D12" s="5">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="H12" s="2">
-        <v>41891</v>
+        <v>41917</v>
       </c>
       <c r="I12" s="2">
         <v>41928</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:9" ht="45" x14ac:dyDescent="0.25">
       <c r="D13" s="5">
+        <v>1032</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="2">
+        <v>41917</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D14" s="5">
+        <v>1030</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="2">
+        <v>41893</v>
+      </c>
+      <c r="I14" s="2">
+        <v>41924</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" s="5">
+        <v>1028</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="2">
+        <v>41891</v>
+      </c>
+      <c r="I15" s="2">
+        <v>41895</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D16" s="5">
+        <v>1029</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="2">
+        <v>41891</v>
+      </c>
+      <c r="I16" s="2">
+        <v>41928</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="5">
         <v>1025</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H17" s="2">
         <v>41869</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="5">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="5">
         <v>1022</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H18" s="2">
         <v>41854</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="5">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="5">
         <v>1023</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H19" s="2">
         <v>41854</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I19" s="2">
         <v>41891</v>
       </c>
     </row>
-    <row r="16" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D16" s="5">
+    <row r="20" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D20" s="5">
         <v>1024</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H20" s="2">
         <v>41854</v>
       </c>
     </row>
-    <row r="17" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D17" s="5">
+    <row r="21" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" s="5">
         <v>1026</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H21" s="2">
         <v>41841</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I21" s="2">
         <v>41901</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D18" s="5">
+    <row r="22" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D22" s="5">
         <v>1027</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H22" s="2">
         <v>41841</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I22" s="2">
         <v>41901</v>
       </c>
     </row>
-    <row r="19" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D19" s="5">
+    <row r="23" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D23" s="5">
         <v>1019</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H23" s="2">
         <v>41724</v>
       </c>
     </row>
-    <row r="20" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D20" s="5">
+    <row r="24" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D24" s="5">
         <v>1020</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H24" s="2">
         <v>41724</v>
       </c>
     </row>
-    <row r="21" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D21" s="5">
+    <row r="25" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D25" s="5">
         <v>1021</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H25" s="2">
         <v>41724</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="5">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="5">
         <v>1018</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H26" s="2">
         <v>41576</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="5">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="5">
         <v>1017</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H27" s="2">
         <v>41484</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="5">
-        <v>1016</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="2">
-        <v>41363</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D25" s="5">
-        <v>1015</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="2">
-        <v>41362</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D26" s="5">
-        <v>1014</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="2">
-        <v>41229</v>
-      </c>
-    </row>
-    <row r="27" spans="4:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="D27" s="5">
-        <v>1013</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="2">
-        <v>41092</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D28" s="5">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H28" s="2">
-        <v>41028</v>
+        <v>41363</v>
       </c>
     </row>
     <row r="29" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D29" s="5">
+        <v>1015</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="2">
+        <v>41362</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D30" s="5">
+        <v>1014</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="2">
+        <v>41229</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="D31" s="5">
+        <v>1013</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="2">
+        <v>41092</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="5">
+        <v>1012</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="2">
+        <v>41028</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D33" s="5">
         <v>1010</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H33" s="2">
         <v>40959</v>
       </c>
     </row>
-    <row r="30" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D30" s="5">
+    <row r="34" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D34" s="5">
         <v>1011</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H34" s="2">
         <v>40959</v>
       </c>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="5">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="5">
         <v>1008</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H35" s="2">
         <v>40956</v>
       </c>
     </row>
-    <row r="32" spans="4:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="D32" s="5">
+    <row r="36" spans="4:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D36" s="5">
         <v>1009</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H36" s="2">
         <v>40956</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D33" s="5">
-        <v>1007</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" s="2">
-        <v>40947</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D34" s="5">
-        <v>1006</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="2">
-        <v>40869</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="D35" s="5">
-        <v>1005</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" s="2">
-        <v>40866</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D36" s="5">
-        <v>1004</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="2">
-        <v>40794</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D37" s="5">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H37" s="2">
-        <v>40763</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+        <v>40947</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D38" s="5">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H38" s="2">
-        <v>40506</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+        <v>40869</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" ht="90" x14ac:dyDescent="0.25">
       <c r="D39" s="5">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H39" s="2">
-        <v>39122</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+        <v>40866</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D40" s="5">
-        <v>1036</v>
+        <v>1004</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="2">
+        <v>40794</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D41" s="5">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="2">
+        <v>40763</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" ht="45" x14ac:dyDescent="0.25">
       <c r="D42" s="5">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+        <v>1002</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="2">
+        <v>40506</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D43" s="5">
-        <v>1039</v>
+        <v>1001</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="2">
+        <v>39122</v>
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.25">

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
-    <sheet name="mccm" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">todo!$D$4:$I$48</definedName>
@@ -19,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>id</t>
   </si>
@@ -169,34 +168,7 @@
     <t>Return true falls ganzer Katalog eingelesen (s.a. id 1005).</t>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>interval</t>
-  </si>
-  <si>
-    <t>threshold</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>log10</t>
-  </si>
-  <si>
-    <t>level (n)</t>
-  </si>
-  <si>
-    <t>level (i)</t>
-  </si>
-  <si>
     <t>Notwendigkeit von ListCutter prüfen</t>
-  </si>
-  <si>
-    <t>Beispielsweise Epoch.A &gt; Epoch.O. Exception PNV mit xpath-Query von fehlerhaftem Element/ Attribut auslösen.</t>
   </si>
   <si>
     <t>Konzept zur Definition von Circle-Elementen als Field-Of-View.</t>
@@ -279,31 +251,55 @@
     <t>PDF quer bei BodySun mit Dial an circle-Attribut</t>
   </si>
   <si>
-    <t>Ausgabe in gs korrekt.</t>
-  </si>
-  <si>
-    <t>BodyOrbitalType mit Dial an circle-Attribut und FOV-Intersection implementieren</t>
-  </si>
-  <si>
-    <t>division nur bei baseline="rail" erforderlich.</t>
-  </si>
-  <si>
-    <t>Konzept für Relation von baseline- un ddivision-Attributen von DialType.</t>
-  </si>
-  <si>
-    <t>Konzept für Relation von circle-Attribut und DIalType</t>
-  </si>
-  <si>
-    <t>circle als Attribut von DialType prüfen.</t>
+    <t>Ausgabe in gs korrekt. Anzahl gsave == Anzahl grestore prüfen.</t>
+  </si>
+  <si>
+    <t>Testkonzept automatisieren</t>
+  </si>
+  <si>
+    <t>PS-Ausgabe von Test-Files mit Referenz vergleichen (bspw. mittels diff), Zeilen mit erlaubten Abweichungen (bspw. wenn sie Datum/ Zeit enthalten) definieren.</t>
+  </si>
+  <si>
+    <t>Beispielsweise Epoch.A &gt; Epoch.O, Wert von baseline-Attribut an BodyOrbitalType ungültig. Exception PNV mit xpath-Query von fehlerhaftem Element/ Attribut auslösen.</t>
+  </si>
+  <si>
+    <t>Konzept für BodyOrbitalType mit Umläufen/ Jahr größer 1</t>
+  </si>
+  <si>
+    <t>Rückbau des stretch-Attributs</t>
+  </si>
+  <si>
+    <t>Problematisch falls list() not isSimple(). Workaround skip Body falls list() not isSimple().</t>
+  </si>
+  <si>
+    <t>Vorhandenes Attribut baseline s. #1038.</t>
+  </si>
+  <si>
+    <t>BodyOrbitalType mit DialDay an baseline-Attribut implementieren</t>
+  </si>
+  <si>
+    <t>s.a. #1038.</t>
+  </si>
+  <si>
+    <t>Diskretisierung von double[2] prüfen/ implementieren</t>
+  </si>
+  <si>
+    <t>05.11.2014: Workaround in BodyOrbitalType.emitPS() implementiert.</t>
+  </si>
+  <si>
+    <t>Attribut baseline von DialType zu Elementen ScalebaseRail, -Line und -None migrieren</t>
+  </si>
+  <si>
+    <t>Attribut division von DialType als subdivision nach ScalebaseRail migrieren.</t>
+  </si>
+  <si>
+    <t>Attribut circle von BodyOrbitalType als baseline nach DialType migrieren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -359,12 +355,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,13 +659,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="D4:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,589 +698,625 @@
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D5" s="5">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H5" s="2">
-        <v>41929</v>
+        <v>41948</v>
       </c>
     </row>
     <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D6" s="5">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H6" s="2">
-        <v>41929</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+        <v>41948</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" ht="60" x14ac:dyDescent="0.25">
       <c r="D7" s="5">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2">
-        <v>41929</v>
+        <v>41941</v>
       </c>
     </row>
     <row r="8" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D8" s="5">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="H8" s="2">
+        <v>41941</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="5">
+        <v>1036</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="2">
         <v>41929</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="D9" s="5">
+    <row r="10" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" s="5">
+        <v>1037</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="2">
+        <v>41929</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="5">
         <v>1035</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="2">
         <v>41924</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I11" s="2">
         <v>41928</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="D10" s="5">
-        <v>1033</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="2">
-        <v>41918</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D11" s="5">
-        <v>1034</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="2">
-        <v>41918</v>
       </c>
     </row>
     <row r="12" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D12" s="5">
+        <v>1038</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="2">
+        <v>41929</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="5">
+        <v>1039</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="2">
+        <v>41929</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="5">
         <v>1031</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="2">
+        <v>41917</v>
+      </c>
+      <c r="I14" s="2">
+        <v>41928</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D15" s="5">
+        <v>1033</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="H15" s="2">
+        <v>41918</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="5">
+        <v>1030</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="2">
+        <v>41893</v>
+      </c>
+      <c r="I16" s="2">
+        <v>41924</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="5">
+        <v>1028</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="2">
+        <v>41891</v>
+      </c>
+      <c r="I17" s="2">
+        <v>41895</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="5">
+        <v>1029</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="2">
+        <v>41891</v>
+      </c>
+      <c r="I18" s="2">
+        <v>41928</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D19" s="5">
+        <v>1034</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="2">
+        <v>41918</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D20" s="5">
+        <v>1032</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="2">
         <v>41917</v>
       </c>
-      <c r="I12" s="2">
-        <v>41928</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D13" s="5">
-        <v>1032</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="2">
-        <v>41917</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="D14" s="5">
-        <v>1030</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="2">
-        <v>41893</v>
-      </c>
-      <c r="I14" s="2">
-        <v>41924</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D15" s="5">
-        <v>1028</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="2">
+    </row>
+    <row r="21" spans="4:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="5">
+        <v>1023</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="2">
+        <v>41854</v>
+      </c>
+      <c r="I21" s="2">
         <v>41891</v>
       </c>
-      <c r="I15" s="2">
-        <v>41895</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D16" s="5">
-        <v>1029</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="2">
-        <v>41891</v>
-      </c>
-      <c r="I16" s="2">
-        <v>41928</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="5">
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="5">
         <v>1025</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="2">
         <v>41869</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="5">
+    <row r="23" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="5">
+        <v>1026</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="2">
+        <v>41841</v>
+      </c>
+      <c r="I23" s="2">
+        <v>41901</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="5">
+        <v>1027</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="2">
+        <v>41841</v>
+      </c>
+      <c r="I24" s="2">
+        <v>41901</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="5">
         <v>1022</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H25" s="2">
         <v>41854</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="5">
-        <v>1023</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="2">
+    <row r="26" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D26" s="5">
+        <v>1024</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="2">
         <v>41854</v>
       </c>
-      <c r="I19" s="2">
-        <v>41891</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D20" s="5">
-        <v>1024</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="2">
-        <v>41854</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D21" s="5">
-        <v>1026</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="2">
-        <v>41841</v>
-      </c>
-      <c r="I21" s="2">
-        <v>41901</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D22" s="5">
-        <v>1027</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="2">
-        <v>41841</v>
-      </c>
-      <c r="I22" s="2">
-        <v>41901</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D23" s="5">
+    </row>
+    <row r="27" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D27" s="5">
         <v>1019</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H27" s="2">
         <v>41724</v>
       </c>
     </row>
-    <row r="24" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D24" s="5">
+    <row r="28" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D28" s="5">
         <v>1020</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H28" s="2">
         <v>41724</v>
       </c>
     </row>
-    <row r="25" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D25" s="5">
+    <row r="29" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D29" s="5">
         <v>1021</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H29" s="2">
         <v>41724</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="5">
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="5">
         <v>1018</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H30" s="2">
         <v>41576</v>
       </c>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="5">
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="5">
         <v>1017</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H31" s="2">
         <v>41484</v>
-      </c>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="5">
-        <v>1016</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="2">
-        <v>41363</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D29" s="5">
-        <v>1015</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="2">
-        <v>41362</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D30" s="5">
-        <v>1014</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="2">
-        <v>41229</v>
-      </c>
-    </row>
-    <row r="31" spans="4:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="D31" s="5">
-        <v>1013</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="2">
-        <v>41092</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D32" s="5">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H32" s="2">
-        <v>41028</v>
+        <v>41363</v>
       </c>
     </row>
     <row r="33" spans="4:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="5">
+        <v>1015</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="2">
+        <v>41362</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D34" s="5">
+        <v>1014</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="2">
+        <v>41229</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D35" s="5">
+        <v>1013</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="2">
+        <v>41092</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="5">
+        <v>1012</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="2">
+        <v>41028</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D37" s="5">
         <v>1010</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H37" s="2">
         <v>40959</v>
       </c>
     </row>
-    <row r="34" spans="4:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D34" s="5">
+    <row r="38" spans="4:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D38" s="5">
         <v>1011</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="F38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="2">
         <v>40959</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D35" s="5">
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="5">
         <v>1008</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H39" s="2">
         <v>40956</v>
       </c>
     </row>
-    <row r="36" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D36" s="5">
+    <row r="40" spans="4:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D40" s="5">
         <v>1009</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H40" s="2">
         <v>40956</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="5">
-        <v>1007</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" s="2">
-        <v>40947</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D38" s="5">
-        <v>1006</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="2">
-        <v>40869</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="D39" s="5">
-        <v>1005</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="2">
-        <v>40866</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D40" s="5">
-        <v>1004</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="2">
-        <v>40794</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D41" s="5">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H41" s="2">
-        <v>40763</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+        <v>40947</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D42" s="5">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H42" s="2">
-        <v>40506</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+        <v>40869</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" ht="90" x14ac:dyDescent="0.25">
       <c r="D43" s="5">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H43" s="2">
-        <v>39122</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+        <v>40866</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D44" s="5">
-        <v>1040</v>
+        <v>1004</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="2">
+        <v>40794</v>
       </c>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D45" s="5">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="2">
+        <v>40763</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" ht="45" x14ac:dyDescent="0.25">
       <c r="D46" s="5">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+        <v>1002</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="2">
+        <v>40506</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D47" s="5">
-        <v>1043</v>
+        <v>1001</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="2">
+        <v>39122</v>
       </c>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.25">
@@ -1297,6 +1326,9 @@
     </row>
   </sheetData>
   <autoFilter ref="D4:I48">
+    <filterColumn colId="5">
+      <filters blank="1"/>
+    </filterColumn>
     <sortState ref="D5:I48">
       <sortCondition descending="1" ref="H4:H48"/>
     </sortState>
@@ -1304,240 +1336,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6">
-        <v>0.72</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7">
-        <v>0.96</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8">
-        <f>(E7-E6)/(D10-1)</f>
-        <v>0.81818181818181823</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <f>D$6+(D$7-D$6)*G14</f>
-        <v>0.72</v>
-      </c>
-      <c r="G14">
-        <f>LOG10(1+E14*E$8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" ref="F15:F25" si="0">D$6+(D$7-D$6)*G15</f>
-        <v>0.7823129545213815</v>
-      </c>
-      <c r="G15">
-        <f>LOG10(1+E15*E$8)</f>
-        <v>0.25963731050575617</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>0.82104127505777547</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ref="G16:G25" si="1">LOG10(1+E16*E$8)</f>
-        <v>0.42100531274073111</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>0.84921381875006041</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>0.53839091145858509</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>0.87136924146659811</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>0.6307051727774925</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>0.88963088204351404</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>0.70679534184797532</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="0"/>
-        <v>0.90516496115631129</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>0.77152067148463055</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21">
-        <v>7</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" si="0"/>
-        <v>0.91868136829746028</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>0.82783903457275121</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22">
-        <v>8</v>
-      </c>
-      <c r="F22" s="7">
-        <f t="shared" si="0"/>
-        <v>0.93064449773228375</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>0.87768540721784893</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23">
-        <v>9</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" si="0"/>
-        <v>0.94137483412495926</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>0.92239514218733021</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24" s="7">
-        <f t="shared" si="0"/>
-        <v>0.9511028852698602</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>0.96292868862441749</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E25">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" si="0"/>
-        <v>0.96</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B6:B7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/todo.xlsx
+++ b/todo.xlsx
@@ -666,7 +666,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +763,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D10" s="5">
         <v>1037</v>
       </c>
@@ -775,6 +775,9 @@
       </c>
       <c r="H10" s="2">
         <v>41929</v>
+      </c>
+      <c r="I10" s="2">
+        <v>41988</v>
       </c>
     </row>
     <row r="11" spans="4:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -797,7 +800,7 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D12" s="5">
         <v>1038</v>
       </c>
@@ -810,8 +813,11 @@
       <c r="H12" s="2">
         <v>41929</v>
       </c>
-    </row>
-    <row r="13" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2">
+        <v>41988</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D13" s="5">
         <v>1039</v>
       </c>
@@ -823,6 +829,9 @@
       </c>
       <c r="H13" s="2">
         <v>41929</v>
+      </c>
+      <c r="I13" s="2">
+        <v>41988</v>
       </c>
     </row>
     <row r="14" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>03.08.2014: Nord-/ Südhimmel prüfen.</t>
-  </si>
-  <si>
-    <t>Optional, Default-Wert true.</t>
   </si>
   <si>
     <t>Optional, Default-Wert false.</t>
@@ -210,9 +207,6 @@
     <t>Klasse ist Alpha, Omega optional, Mapping wegen Namenskonflikt mit Circle* einführen.</t>
   </si>
   <si>
-    <t>Alpha/ Omega optional, default 0/ 359 bzw. -90/ 90 (prefs), mapping wegen Namenskonflikt mit Epoch einführen</t>
-  </si>
-  <si>
     <t>Klasse Epoch optimieren</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
   </si>
   <si>
     <t>CircleType Begin/ End nach Alpha/ Omega ändern</t>
-  </si>
-  <si>
-    <t>Element-Class-mapping, beide optional, default aus preferences.</t>
   </si>
   <si>
     <t>Differenzierung von preferences für GraduationSpan, -Half, -Full über name-Attribut, division-Attribut von GraduationSpan nach DialDegree ändern.</t>
@@ -294,6 +285,12 @@
   </si>
   <si>
     <t>Attribut circle von BodyOrbitalType als baseline nach DialType migrieren</t>
+  </si>
+  <si>
+    <t>Element-Class-mapping, beide optional, default (0/ 359,99 bzw. -85/ 85) aus preferences, mapping wegen Namenskonflikt mit Epoch einführen.</t>
+  </si>
+  <si>
+    <t>Optional, Default-Wert true. Alternativ contour-Attribut von CatalogDS9Record prüfen.</t>
   </si>
 </sst>
 </file>
@@ -666,7 +663,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +698,7 @@
         <v>1042</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H5" s="2">
         <v>41948</v>
@@ -712,7 +709,7 @@
         <v>1043</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2">
         <v>41948</v>
@@ -723,10 +720,10 @@
         <v>1040</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H7" s="2">
         <v>41941</v>
@@ -737,13 +734,13 @@
         <v>1041</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H8" s="2">
         <v>41941</v>
@@ -754,10 +751,10 @@
         <v>1036</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H9" s="2">
         <v>41929</v>
@@ -768,10 +765,10 @@
         <v>1037</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H10" s="2">
         <v>41929</v>
@@ -785,13 +782,13 @@
         <v>1035</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" s="2">
         <v>41924</v>
@@ -805,10 +802,10 @@
         <v>1038</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H12" s="2">
         <v>41929</v>
@@ -822,10 +819,10 @@
         <v>1039</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H13" s="2">
         <v>41929</v>
@@ -839,10 +836,10 @@
         <v>1031</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="2">
         <v>41917</v>
@@ -856,10 +853,10 @@
         <v>1033</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H15" s="2">
         <v>41918</v>
@@ -870,10 +867,10 @@
         <v>1030</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H16" s="2">
         <v>41893</v>
@@ -887,13 +884,13 @@
         <v>1028</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="H17" s="2">
         <v>41891</v>
@@ -907,10 +904,10 @@
         <v>1029</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H18" s="2">
         <v>41891</v>
@@ -919,29 +916,26 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="19" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:9" ht="45" x14ac:dyDescent="0.25">
       <c r="D19" s="5">
         <v>1034</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H19" s="2">
         <v>41918</v>
       </c>
     </row>
-    <row r="20" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" s="5">
         <v>1032</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H20" s="2">
         <v>41917</v>
@@ -952,10 +946,10 @@
         <v>1023</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" s="2">
         <v>41854</v>
@@ -969,10 +963,10 @@
         <v>1025</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="2">
         <v>41869</v>
@@ -983,10 +977,10 @@
         <v>1026</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" s="2">
         <v>41841</v>
@@ -1000,13 +994,13 @@
         <v>1027</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H24" s="2">
         <v>41841</v>
@@ -1015,15 +1009,15 @@
         <v>41901</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D25" s="5">
         <v>1022</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="H25" s="2">
         <v>41854</v>
@@ -1034,10 +1028,10 @@
         <v>1024</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="H26" s="2">
         <v>41854</v>
@@ -1199,7 +1193,7 @@
         <v>13</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H38" s="2">
         <v>40959</v>
@@ -1266,7 +1260,7 @@
         <v>24</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H43" s="2">
         <v>40866</v>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="todo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">todo!$D$4:$I$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">todo!$D$4:$I$58</definedName>
     <definedName name="closed">todo!#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>Landesgreonzen, Hauptstädte, Zeitzonen; Lokale Schreibweisen berücksichtigen.</t>
-  </si>
-  <si>
-    <t>Beispielsweise Circle.Reference, Catalog.fov, BodySun.circle. Referenzen zwischen Objekten durch obligatorische name-Attribute gewährleisten. S. …/XMLSchemaTutorial/ Output/ser_keys_st5.html.</t>
   </si>
   <si>
     <t>Werte für purpose-Attribute vereinheitlichen</t>
@@ -232,65 +229,112 @@
 Startpunkt für Skalenstrich vor Aufruf von Scaleline einstellen, Koordinatensystem mit x-Achse parallel zum Skalenstrich ausrichten.</t>
   </si>
   <si>
-    <t>-180 bis 360 excl. Im Modell, ! 360&gt;O-A in Applikation.
+    <t>16.09.2014: Notwendig für klassenspezifische Attribute, bspw. type, die nicht im Scope der Parent-Klasse BodyOrbitalType liegen.</t>
+  </si>
+  <si>
+    <t>PDF quer bei BodySun mit Dial an circle-Attribut</t>
+  </si>
+  <si>
+    <t>Ausgabe in gs korrekt. Anzahl gsave == Anzahl grestore prüfen.</t>
+  </si>
+  <si>
+    <t>Testkonzept automatisieren</t>
+  </si>
+  <si>
+    <t>PS-Ausgabe von Test-Files mit Referenz vergleichen (bspw. mittels diff), Zeilen mit erlaubten Abweichungen (bspw. wenn sie Datum/ Zeit enthalten) definieren.</t>
+  </si>
+  <si>
+    <t>Beispielsweise Epoch.A &gt; Epoch.O, Wert von baseline-Attribut an BodyOrbitalType ungültig. Exception PNV mit xpath-Query von fehlerhaftem Element/ Attribut auslösen.</t>
+  </si>
+  <si>
+    <t>Konzept für BodyOrbitalType mit Umläufen/ Jahr größer 1</t>
+  </si>
+  <si>
+    <t>Problematisch falls list() not isSimple(). Workaround skip Body falls list() not isSimple().</t>
+  </si>
+  <si>
+    <t>Vorhandenes Attribut baseline s. #1038.</t>
+  </si>
+  <si>
+    <t>BodyOrbitalType mit DialDay an baseline-Attribut implementieren</t>
+  </si>
+  <si>
+    <t>s.a. #1038.</t>
+  </si>
+  <si>
+    <t>Diskretisierung von double[2] prüfen/ implementieren</t>
+  </si>
+  <si>
+    <t>05.11.2014: Workaround in BodyOrbitalType.emitPS() implementiert.</t>
+  </si>
+  <si>
+    <t>Attribut baseline von DialType zu Elementen ScalebaseRail, -Line und -None migrieren</t>
+  </si>
+  <si>
+    <t>Attribut division von DialType als subdivision nach ScalebaseRail migrieren.</t>
+  </si>
+  <si>
+    <t>Attribut circle von BodyOrbitalType als baseline nach DialType migrieren</t>
+  </si>
+  <si>
+    <t>Optional, Default-Wert true. Alternativ contour-Attribut von CatalogDS9Record prüfen.</t>
+  </si>
+  <si>
+    <t>Astrolabe/Epoch optionalisieren</t>
+  </si>
+  <si>
+    <t>28.12.2014: Model aktualisiert.</t>
+  </si>
+  <si>
+    <t>Default lat/ lon 0/ 0.</t>
+  </si>
+  <si>
+    <t>! 360&gt;O-A in Applikation prüfen.
 Verwendung von MapTo0To360Range in bspw, CircleParallel.list() prüfen; sind u.U. bsolet.</t>
   </si>
   <si>
-    <t>16.09.2014: Notwendig für klassenspezifische Attribute, bspw. type, die nicht im Scope der Parent-Klasse BodyOrbitalType liegen.</t>
-  </si>
-  <si>
-    <t>PDF quer bei BodySun mit Dial an circle-Attribut</t>
-  </si>
-  <si>
-    <t>Ausgabe in gs korrekt. Anzahl gsave == Anzahl grestore prüfen.</t>
-  </si>
-  <si>
-    <t>Testkonzept automatisieren</t>
-  </si>
-  <si>
-    <t>PS-Ausgabe von Test-Files mit Referenz vergleichen (bspw. mittels diff), Zeilen mit erlaubten Abweichungen (bspw. wenn sie Datum/ Zeit enthalten) definieren.</t>
-  </si>
-  <si>
-    <t>Beispielsweise Epoch.A &gt; Epoch.O, Wert von baseline-Attribut an BodyOrbitalType ungültig. Exception PNV mit xpath-Query von fehlerhaftem Element/ Attribut auslösen.</t>
-  </si>
-  <si>
-    <t>Konzept für BodyOrbitalType mit Umläufen/ Jahr größer 1</t>
-  </si>
-  <si>
-    <t>Rückbau des stretch-Attributs</t>
-  </si>
-  <si>
-    <t>Problematisch falls list() not isSimple(). Workaround skip Body falls list() not isSimple().</t>
-  </si>
-  <si>
-    <t>Vorhandenes Attribut baseline s. #1038.</t>
-  </si>
-  <si>
-    <t>BodyOrbitalType mit DialDay an baseline-Attribut implementieren</t>
-  </si>
-  <si>
-    <t>s.a. #1038.</t>
-  </si>
-  <si>
-    <t>Diskretisierung von double[2] prüfen/ implementieren</t>
-  </si>
-  <si>
-    <t>05.11.2014: Workaround in BodyOrbitalType.emitPS() implementiert.</t>
-  </si>
-  <si>
-    <t>Attribut baseline von DialType zu Elementen ScalebaseRail, -Line und -None migrieren</t>
-  </si>
-  <si>
-    <t>Attribut division von DialType als subdivision nach ScalebaseRail migrieren.</t>
-  </si>
-  <si>
-    <t>Attribut circle von BodyOrbitalType als baseline nach DialType migrieren</t>
-  </si>
-  <si>
-    <t>Element-Class-mapping, beide optional, default (0/ 359,99 bzw. -85/ 85) aus preferences, mapping wegen Namenskonflikt mit Epoch einführen.</t>
-  </si>
-  <si>
-    <t>Optional, Default-Wert true. Alternativ contour-Attribut von CatalogDS9Record prüfen.</t>
+    <t>Element-Class-mapping, beide optional, default (0/ 359,99 bzw. -85/ 85) aus preferences.</t>
+  </si>
+  <si>
+    <t>03.01.2015: Anzahl gsave == Anzahl grestore.</t>
+  </si>
+  <si>
+    <t>Rückbau des stretch-Attributs (BodyOrbitalType)</t>
+  </si>
+  <si>
+    <t>Hintergrund-linewidth la/ max-la/ min, eigene Farbe/ Graustufe. Bahnverlauf im Vordergrund. Bei Überschneidungen (! isSimple()) mehrere BodyOrbitalType verwenden.</t>
+  </si>
+  <si>
+    <t>Asymetrie gsave/ grestore in Annotation* prüfen</t>
+  </si>
+  <si>
+    <t>28.12.2014: Model aktualisiert.
+06.01.2015: Doublette von #1013.</t>
+  </si>
+  <si>
+    <t>ChartAzimuthalType/Oblique optionalisieren</t>
+  </si>
+  <si>
+    <t>Default aktuelles Jahr.</t>
+  </si>
+  <si>
+    <t>Beispielsweise CircleType..Indirect@value, DialType@baseline. Referenzen zwischen Objekten durch XSD-Attribute xs:unique, xs:key und xs:keyref gewährleisten. S. http://de.wikipedia.org/wiki/XML_Schema, Abschn. Weiterführennde Konzepte und Eigenschaften, http://markchensblog.blogspot.de/2012/11/key-keyref-and-unique-in-xsd.html und http://www.torsten-horn.de/techdocs/java-xsd.htm#Schema-Unique-Enum.</t>
+  </si>
+  <si>
+    <t>06.01.2015: Unterschied zwischen Oblique und ChartPageType/Center prüfen.
+07.01.2015: b.a.w. obsolet.</t>
+  </si>
+  <si>
+    <t>CircleParallel@fieldofview funktioniert nicht</t>
+  </si>
+  <si>
+    <t>Class LineString kann kein fov sein.</t>
+  </si>
+  <si>
+    <t>07.01.2015: Unterschied der Default-Werte für Alpha/ Omega (0/ 359.99) zu grof für Default-Wert von preferences:precision. Ok mit Omega 359.9999.</t>
+  </si>
+  <si>
+    <t>Falls möglich beseitigen.</t>
   </si>
 </sst>
 </file>
@@ -657,13 +701,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="D4:I48"/>
+  <dimension ref="D4:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,136 +737,145 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="D5" s="5">
+        <v>1047</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="2">
+        <v>42011</v>
+      </c>
+      <c r="I5" s="2">
+        <v>42011</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
+        <v>1044</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="2">
+        <v>42001</v>
+      </c>
+      <c r="I6" s="2">
+        <v>42010</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="6">
+        <v>1045</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="2">
+        <v>42001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>42010</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="5">
+        <v>1046</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="2">
+        <v>42007</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D9" s="5">
         <v>1042</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="E9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="2">
         <v>41948</v>
       </c>
     </row>
-    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D6" s="5">
+    <row r="10" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" s="5">
         <v>1043</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="E10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="2">
         <v>41948</v>
       </c>
     </row>
-    <row r="7" spans="4:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="D7" s="5">
+    <row r="11" spans="4:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D11" s="5">
         <v>1040</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="2">
+        <v>41941</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D12" s="5">
+        <v>1041</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="2">
+      <c r="F12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="2">
         <v>41941</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D8" s="5">
-        <v>1041</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="2">
-        <v>41941</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D9" s="5">
-        <v>1036</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="2">
-        <v>41929</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="5">
-        <v>1037</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="2">
-        <v>41929</v>
-      </c>
-      <c r="I10" s="2">
-        <v>41988</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="5">
-        <v>1035</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="2">
-        <v>41924</v>
-      </c>
-      <c r="I11" s="2">
-        <v>41928</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="5">
-        <v>1038</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="2">
-        <v>41929</v>
-      </c>
-      <c r="I12" s="2">
-        <v>41988</v>
       </c>
     </row>
     <row r="13" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D13" s="5">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H13" s="2">
         <v>41929</v>
@@ -833,507 +886,620 @@
     </row>
     <row r="14" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D14" s="5">
+        <v>1038</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="2">
+        <v>41929</v>
+      </c>
+      <c r="I14" s="2">
+        <v>41988</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="5">
+        <v>1039</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="2">
+        <v>41929</v>
+      </c>
+      <c r="I15" s="2">
+        <v>41988</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="5">
+        <v>1035</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="2">
+        <v>41924</v>
+      </c>
+      <c r="I16" s="2">
+        <v>41928</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="5">
+        <v>1036</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="2">
+        <v>41929</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="5">
+        <v>1034</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="2">
+        <v>41918</v>
+      </c>
+      <c r="I18" s="2">
+        <v>42010</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="5">
         <v>1031</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="2">
+        <v>41917</v>
+      </c>
+      <c r="I19" s="2">
+        <v>41928</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D20" s="5">
+        <v>1033</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="F20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="2">
+        <v>41918</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="5">
+        <v>1030</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="2">
+        <v>41893</v>
+      </c>
+      <c r="I21" s="2">
+        <v>41924</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="5">
+        <v>1028</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="2">
+        <v>41891</v>
+      </c>
+      <c r="I22" s="2">
+        <v>41895</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="5">
+        <v>1029</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="2">
+        <v>41891</v>
+      </c>
+      <c r="I23" s="2">
+        <v>41928</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="5">
+        <v>1032</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="2">
         <v>41917</v>
       </c>
-      <c r="I14" s="2">
-        <v>41928</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="D15" s="5">
-        <v>1033</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="2">
-        <v>41918</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="5">
-        <v>1030</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="2">
-        <v>41893</v>
-      </c>
-      <c r="I16" s="2">
-        <v>41924</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="5">
-        <v>1028</v>
-      </c>
-      <c r="E17" s="1" t="s">
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="5">
+        <v>1025</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="2">
-        <v>41891</v>
-      </c>
-      <c r="I17" s="2">
-        <v>41895</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="5">
-        <v>1029</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="2">
-        <v>41891</v>
-      </c>
-      <c r="I18" s="2">
-        <v>41928</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D19" s="5">
-        <v>1034</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="2">
-        <v>41918</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="5">
-        <v>1032</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="2">
-        <v>41917</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="5">
+      <c r="H25" s="2">
+        <v>41869</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="5">
         <v>1023</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="2">
-        <v>41854</v>
-      </c>
-      <c r="I21" s="2">
-        <v>41891</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="5">
-        <v>1025</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="2">
-        <v>41869</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="5">
-        <v>1026</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="2">
-        <v>41841</v>
-      </c>
-      <c r="I23" s="2">
-        <v>41901</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="5">
-        <v>1027</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="2">
-        <v>41841</v>
-      </c>
-      <c r="I24" s="2">
-        <v>41901</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D25" s="5">
-        <v>1022</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="2">
-        <v>41854</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D26" s="5">
-        <v>1024</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H26" s="2">
         <v>41854</v>
       </c>
-    </row>
-    <row r="27" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I26" s="2">
+        <v>41891</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D27" s="5">
+        <v>1022</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="2">
+        <v>41854</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="5">
+        <v>1026</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="2">
+        <v>41841</v>
+      </c>
+      <c r="I28" s="2">
+        <v>41901</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="5">
+        <v>1027</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="2">
+        <v>41841</v>
+      </c>
+      <c r="I29" s="2">
+        <v>41901</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D30" s="5">
+        <v>1024</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="2">
+        <v>41854</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D31" s="5">
         <v>1019</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H31" s="2">
         <v>41724</v>
       </c>
     </row>
-    <row r="28" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D28" s="5">
+    <row r="32" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D32" s="5">
         <v>1020</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H32" s="2">
         <v>41724</v>
       </c>
     </row>
-    <row r="29" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D29" s="5">
+    <row r="33" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D33" s="5">
         <v>1021</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H33" s="2">
         <v>41724</v>
       </c>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="5">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="5">
         <v>1018</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H34" s="2">
         <v>41576</v>
       </c>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="5">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="5">
         <v>1017</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H35" s="2">
         <v>41484</v>
       </c>
     </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="5">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="5">
         <v>1016</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H36" s="2">
         <v>41363</v>
       </c>
     </row>
-    <row r="33" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D33" s="5">
+    <row r="37" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D37" s="5">
         <v>1015</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H37" s="2">
         <v>41362</v>
       </c>
     </row>
-    <row r="34" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D34" s="5">
+    <row r="38" spans="4:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="5">
+        <v>1013</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="2">
+        <v>41092</v>
+      </c>
+      <c r="I38" s="2">
+        <v>42011</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D39" s="5">
         <v>1014</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H39" s="2">
         <v>41229</v>
       </c>
     </row>
-    <row r="35" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D35" s="5">
-        <v>1013</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="1" t="s">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D40" s="5">
+        <v>1012</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="2">
+        <v>41028</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D41" s="5">
+        <v>1010</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="2">
+        <v>40959</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D42" s="5">
+        <v>1011</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="2">
+        <v>40959</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D43" s="5">
+        <v>1008</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="2">
+        <v>40956</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="D44" s="5">
+        <v>1009</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H44" s="2">
+        <v>40956</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D45" s="5">
+        <v>1007</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="2">
-        <v>41092</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D36" s="5">
-        <v>1012</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="2">
-        <v>41028</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D37" s="5">
-        <v>1010</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="2">
-        <v>40959</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="D38" s="5">
-        <v>1011</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H38" s="2">
-        <v>40959</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="5">
-        <v>1008</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="2">
-        <v>40956</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D40" s="5">
-        <v>1009</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="H45" s="2">
+        <v>40947</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D46" s="5">
+        <v>1006</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="2">
+        <v>40869</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="D47" s="5">
+        <v>1005</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="2">
+        <v>40866</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D48" s="5">
+        <v>1004</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="2">
+        <v>40794</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D49" s="5">
+        <v>1003</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="2">
-        <v>40956</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D41" s="5">
-        <v>1007</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" s="2">
-        <v>40947</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D42" s="5">
-        <v>1006</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="2">
-        <v>40869</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="D43" s="5">
-        <v>1005</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="2">
-        <v>40866</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D44" s="5">
-        <v>1004</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" s="2">
-        <v>40794</v>
-      </c>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="5">
-        <v>1003</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" s="2">
+      <c r="H49" s="2">
         <v>40763</v>
       </c>
     </row>
-    <row r="46" spans="4:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D46" s="5">
+    <row r="50" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D50" s="5">
         <v>1002</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H50" s="2">
         <v>40506</v>
       </c>
     </row>
-    <row r="47" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D47" s="5">
+    <row r="51" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D51" s="5">
         <v>1001</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H51" s="2">
         <v>39122</v>
       </c>
     </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D48" s="5">
-        <v>1044</v>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D52" s="6">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="5">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D54" s="5">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D55" s="6">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="5">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D57" s="5">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="6">
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D4:I48">
+  <autoFilter ref="D4:I58">
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
-    <sortState ref="D5:I48">
-      <sortCondition descending="1" ref="H4:H48"/>
+    <sortState ref="D8:I58">
+      <sortCondition descending="1" ref="H4:H58"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -321,20 +321,72 @@
     <t>Beispielsweise CircleType..Indirect@value, DialType@baseline. Referenzen zwischen Objekten durch XSD-Attribute xs:unique, xs:key und xs:keyref gewährleisten. S. http://de.wikipedia.org/wiki/XML_Schema, Abschn. Weiterführennde Konzepte und Eigenschaften, http://markchensblog.blogspot.de/2012/11/key-keyref-and-unique-in-xsd.html und http://www.torsten-horn.de/techdocs/java-xsd.htm#Schema-Unique-Enum.</t>
   </si>
   <si>
+    <t>CircleParallel@fieldofview funktioniert nicht</t>
+  </si>
+  <si>
+    <t>Class LineString kann kein fov sein.</t>
+  </si>
+  <si>
+    <t>07.01.2015: Unterschied der Default-Werte für Alpha/ Omega (0/ 359.99) zu grof für Default-Wert von preferences:precision. Ok mit Omega 359.9999.</t>
+  </si>
+  <si>
+    <t>Falls möglich beseitigen.</t>
+  </si>
+  <si>
+    <t>Rational@value auf Parser-Wert umstellen</t>
+  </si>
+  <si>
+    <t>Attribut kann Parser-Wert oder Gleitkommazahl als String enthalten. CircleType speichert Angle-Wert in Registry. CircleType-Elemente lassen sich durch einfaches Kopieren einfügen: Registry-Variable ist "angle", Rational@value ist {angle+10}, dann ist aktueller Angle-Wert um 10 größer als vorheriger.</t>
+  </si>
+  <si>
     <t>06.01.2015: Unterschied zwischen Oblique und ChartPageType/Center prüfen.
-07.01.2015: b.a.w. obsolet.</t>
-  </si>
-  <si>
-    <t>CircleParallel@fieldofview funktioniert nicht</t>
-  </si>
-  <si>
-    <t>Class LineString kann kein fov sein.</t>
-  </si>
-  <si>
-    <t>07.01.2015: Unterschied der Default-Werte für Alpha/ Omega (0/ 359.99) zu grof für Default-Wert von preferences:precision. Ok mit Omega 359.9999.</t>
-  </si>
-  <si>
-    <t>Falls möglich beseitigen.</t>
+07.01.2015: b.a.w. obsolet.
+20.01.2015: Prüfen ob ChartPage/Center Oblique entspricht und ob ob Oblique Konzept für andere Projektionen ist. Außerdem Verwendung von JMapProjLib/ PROJ1.4 prüfen.
+25.01.2015: ProjectorStereographic is type ChartType, ConverterEcliptical is type HorizonType. Beide notwendig: Oblique, Center. Atlas durch multiple Chart mit Kombinationen von Obligue/ Center/ size/ scale prüfen, falls umzusetzen Atlas* obsolet.
+08.02.2015: Center obsolet, da andere Bezeichnung für Oblique. ComplexType ChartType, Element ChartAzimuthal, ChartCylindrical, Attribut projection. Klasse für Projector einführen. Werte 90/ -90 für Oblique/lat ersetzen Attribut northern.</t>
+  </si>
+  <si>
+    <t>degister-Methoden mit Modifier static prüfen/ ändern</t>
+  </si>
+  <si>
+    <t>Konzept für Atlas überarbeiten</t>
+  </si>
+  <si>
+    <t>Atlas durch Kombination von ChartPage und Oblique umsetzen. Picker in Web-Seite überarbeiten, bspw. skalierbares Rechteck (Seite) über zylindrische Himmelsprojektion ziehen.</t>
+  </si>
+  <si>
+    <t>ChartType.cartesian auflösen</t>
+  </si>
+  <si>
+    <t>astrolabe.Coordinate.spherical/ .cartesian einführen.</t>
+  </si>
+  <si>
+    <t>11.03.2015: P4 Klassen in C++ für CUDA, Java per JNI.</t>
+  </si>
+  <si>
+    <t>15.03.2015: Tabelle test files, Tabelle test sets.</t>
+  </si>
+  <si>
+    <t>Default-Werte für Modellelemente und -attribute einführen</t>
+  </si>
+  <si>
+    <t>Mollweide Projektion implementieren</t>
+  </si>
+  <si>
+    <t>18.03.2015: Default-Werte Oblique 0/90 (lam/phi) für ChartAzimuthal, 0/0 für ChartPseudoCylindrical implementiert.</t>
+  </si>
+  <si>
+    <t>Werte für Elemente aus .preferences (à la keys defalpha/ defomega für Alpha-/ Omega-Elemente), Attribute mittels default in Modell.</t>
+  </si>
+  <si>
+    <t>Celestial nach Spherical implementieren</t>
+  </si>
+  <si>
+    <t>xy.x = -xy.x</t>
+  </si>
+  <si>
+    <t>26.03.2015: Google: segmentation of astronomical images.
+27.03.2015: Google: sextractor.</t>
   </si>
 </sst>
 </file>
@@ -707,7 +759,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,162 +789,162 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="4:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="5">
+    <row r="5" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="6">
+        <v>1051</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="2">
+        <v>42071</v>
+      </c>
+      <c r="I5" s="2">
+        <v>42071</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
         <v>1047</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="H6" s="2">
         <v>42011</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I6" s="2">
         <v>42011</v>
       </c>
     </row>
-    <row r="6" spans="4:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="5">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="6">
+        <v>1054</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="2">
+        <v>42084</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="5">
         <v>1044</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H8" s="2">
         <v>42001</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I8" s="2">
         <v>42010</v>
       </c>
     </row>
-    <row r="7" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="6">
+    <row r="9" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="6">
         <v>1045</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H9" s="2">
         <v>42001</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I9" s="2">
         <v>42010</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="5">
-        <v>1046</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="2">
-        <v>42007</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="D9" s="5">
-        <v>1042</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="2">
-        <v>41948</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="D10" s="5">
-        <v>1043</v>
+        <v>1052</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H10" s="2">
-        <v>41948</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" ht="60" x14ac:dyDescent="0.25">
+        <v>42081</v>
+      </c>
+      <c r="I10" s="2">
+        <v>42094</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" ht="45" x14ac:dyDescent="0.25">
       <c r="D11" s="5">
-        <v>1040</v>
+        <v>1053</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="H11" s="2">
-        <v>41941</v>
+        <v>42081</v>
       </c>
     </row>
     <row r="12" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D12" s="5">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="H12" s="2">
-        <v>41941</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>42067</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" ht="75" x14ac:dyDescent="0.25">
       <c r="D13" s="5">
-        <v>1037</v>
+        <v>1050</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="H13" s="2">
-        <v>41929</v>
-      </c>
-      <c r="I13" s="2">
-        <v>41988</v>
+        <v>42067</v>
       </c>
     </row>
     <row r="14" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D14" s="5">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H14" s="2">
         <v>41929</v>
@@ -903,13 +955,13 @@
     </row>
     <row r="15" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D15" s="5">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H15" s="2">
         <v>41929</v>
@@ -918,579 +970,657 @@
         <v>41988</v>
       </c>
     </row>
-    <row r="16" spans="4:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D16" s="5">
+        <v>1039</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="2">
+        <v>41929</v>
+      </c>
+      <c r="I16" s="2">
+        <v>41988</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="D17" s="6">
+        <v>1048</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="2">
+        <v>42023</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="5">
         <v>1035</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H18" s="2">
         <v>41924</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I18" s="2">
         <v>41928</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D17" s="5">
-        <v>1036</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="2">
-        <v>41929</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="5">
-        <v>1034</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="2">
-        <v>41918</v>
-      </c>
-      <c r="I18" s="2">
-        <v>42010</v>
       </c>
     </row>
     <row r="19" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="D19" s="5">
+        <v>1034</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="2">
+        <v>41918</v>
+      </c>
+      <c r="I19" s="2">
+        <v>42010</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="5">
+        <v>1046</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="2">
+        <v>42007</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="5">
         <v>1031</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H21" s="2">
         <v>41917</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I21" s="2">
         <v>41928</v>
       </c>
     </row>
-    <row r="20" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D20" s="5">
-        <v>1033</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="2">
-        <v>41918</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="5">
+    <row r="22" spans="4:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D22" s="5">
+        <v>1042</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="2">
+        <v>41948</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="5">
         <v>1030</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H23" s="2">
         <v>41893</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I23" s="2">
         <v>41924</v>
       </c>
     </row>
-    <row r="22" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="5">
+    <row r="24" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="5">
         <v>1028</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H24" s="2">
         <v>41891</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I24" s="2">
         <v>41895</v>
       </c>
     </row>
-    <row r="23" spans="4:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="5">
+    <row r="25" spans="4:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="5">
         <v>1029</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H25" s="2">
         <v>41891</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I25" s="2">
         <v>41928</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="5">
-        <v>1032</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="2">
-        <v>41917</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="5">
-        <v>1025</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="2">
-        <v>41869</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D26" s="5">
+        <v>1043</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="2">
+        <v>41948</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="5">
         <v>1023</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H26" s="2">
-        <v>41854</v>
-      </c>
-      <c r="I26" s="2">
-        <v>41891</v>
-      </c>
-    </row>
-    <row r="27" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D27" s="5">
-        <v>1022</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="H27" s="2">
         <v>41854</v>
       </c>
-    </row>
-    <row r="28" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="2">
+        <v>41891</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="D28" s="5">
+        <v>1033</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="2">
+        <v>41918</v>
+      </c>
+      <c r="I28" s="2">
+        <v>42011</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D29" s="5">
+        <v>1040</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="2">
+        <v>41941</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="5">
         <v>1026</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H30" s="2">
         <v>41841</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I30" s="2">
         <v>41901</v>
       </c>
     </row>
-    <row r="29" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="5">
+    <row r="31" spans="4:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="5">
         <v>1027</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H31" s="2">
         <v>41841</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I31" s="2">
         <v>41901</v>
       </c>
     </row>
-    <row r="30" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D30" s="5">
-        <v>1024</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="2">
-        <v>41854</v>
-      </c>
-    </row>
-    <row r="31" spans="4:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D31" s="5">
-        <v>1019</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="2">
-        <v>41724</v>
-      </c>
-    </row>
-    <row r="32" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D32" s="5">
-        <v>1020</v>
+        <v>1041</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="H32" s="2">
-        <v>41724</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+        <v>41941</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="5">
-        <v>1021</v>
+        <v>1036</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="H33" s="2">
-        <v>41724</v>
+        <v>41929</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="5">
-        <v>1018</v>
+        <v>1032</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="H34" s="2">
-        <v>41576</v>
+        <v>41917</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="5">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="H35" s="2">
-        <v>41484</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+        <v>41869</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D36" s="5">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="H36" s="2">
-        <v>41363</v>
+        <v>41854</v>
       </c>
     </row>
     <row r="37" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D37" s="5">
+        <v>1024</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="2">
+        <v>41854</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D38" s="5">
+        <v>1019</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" s="2">
+        <v>41724</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D39" s="5">
+        <v>1020</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="2">
+        <v>41724</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D40" s="5">
+        <v>1021</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="2">
+        <v>41724</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D41" s="5">
+        <v>1018</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2">
+        <v>41576</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D42" s="5">
+        <v>1017</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="2">
+        <v>41484</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" ht="285" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="5">
+        <v>1013</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="2">
+        <v>41092</v>
+      </c>
+      <c r="I43" s="2">
+        <v>42081</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D44" s="5">
+        <v>1016</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="2">
+        <v>41363</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D45" s="5">
         <v>1015</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H45" s="2">
         <v>41362</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="5">
-        <v>1013</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H38" s="2">
-        <v>41092</v>
-      </c>
-      <c r="I38" s="2">
-        <v>42011</v>
-      </c>
-    </row>
-    <row r="39" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D39" s="5">
-        <v>1014</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="2">
-        <v>41229</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D40" s="5">
-        <v>1012</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="2">
-        <v>41028</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D41" s="5">
-        <v>1010</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="2">
-        <v>40959</v>
-      </c>
-    </row>
-    <row r="42" spans="4:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="D42" s="5">
-        <v>1011</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H42" s="2">
-        <v>40959</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D43" s="5">
-        <v>1008</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="2">
-        <v>40956</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="D44" s="5">
-        <v>1009</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H44" s="2">
-        <v>40956</v>
-      </c>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D45" s="5">
-        <v>1007</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" s="2">
-        <v>40947</v>
       </c>
     </row>
     <row r="46" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D46" s="5">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H46" s="2">
-        <v>40869</v>
-      </c>
-    </row>
-    <row r="47" spans="4:9" ht="90" x14ac:dyDescent="0.25">
+        <v>41229</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D47" s="5">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H47" s="2">
-        <v>40866</v>
+        <v>41028</v>
       </c>
     </row>
     <row r="48" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D48" s="5">
+        <v>1010</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="2">
+        <v>40959</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D49" s="5">
+        <v>1011</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="2">
+        <v>40959</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="5">
+        <v>1008</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="2">
+        <v>40956</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="D51" s="5">
+        <v>1009</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="2">
+        <v>40956</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D52" s="5">
+        <v>1007</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="2">
+        <v>40947</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D53" s="5">
+        <v>1006</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="2">
+        <v>40869</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="D54" s="5">
+        <v>1005</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" s="2">
+        <v>40866</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D55" s="5">
         <v>1004</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H48" s="2">
+      <c r="G55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H55" s="2">
         <v>40794</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D49" s="5">
-        <v>1003</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" s="2">
-        <v>40763</v>
-      </c>
-    </row>
-    <row r="50" spans="4:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D50" s="5">
-        <v>1002</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" s="2">
-        <v>40506</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D51" s="5">
-        <v>1001</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="2">
-        <v>39122</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D52" s="6">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D53" s="5">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D54" s="5">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D55" s="6">
-        <v>1051</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D56" s="5">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H56" s="2">
+        <v>40763</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" ht="45" x14ac:dyDescent="0.25">
       <c r="D57" s="5">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D58" s="6">
-        <v>1054</v>
+        <v>1002</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="2">
+        <v>40506</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D58" s="5">
+        <v>1001</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="2">
+        <v>39122</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1628,7 @@
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
-    <sortState ref="D8:I58">
+    <sortState ref="D7:I58">
       <sortCondition descending="1" ref="H4:H58"/>
     </sortState>
   </autoFilter>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -361,9 +361,6 @@
     <t>astrolabe.Coordinate.spherical/ .cartesian einführen.</t>
   </si>
   <si>
-    <t>11.03.2015: P4 Klassen in C++ für CUDA, Java per JNI.</t>
-  </si>
-  <si>
     <t>15.03.2015: Tabelle test files, Tabelle test sets.</t>
   </si>
   <si>
@@ -387,6 +384,10 @@
   <si>
     <t>26.03.2015: Google: segmentation of astronomical images.
 27.03.2015: Google: sextractor.</t>
+  </si>
+  <si>
+    <t>11.03.2015: P4 Klassen in C++ für CUDA, Java per JNI.
+19.05.2015: Java 7 x86_64 installiert.</t>
   </si>
 </sst>
 </file>
@@ -756,10 +757,10 @@
   <dimension ref="D4:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,10 +832,10 @@
         <v>1054</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="H7" s="2">
         <v>42084</v>
@@ -885,7 +886,7 @@
         <v>1052</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" s="2">
         <v>42081</v>
@@ -899,13 +900,13 @@
         <v>1053</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" s="2">
         <v>42081</v>
@@ -1196,7 +1197,7 @@
         <v>73</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H29" s="2">
         <v>41941</v>
@@ -1337,7 +1338,7 @@
         <v>33</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H38" s="2">
         <v>41724</v>
@@ -1575,7 +1576,7 @@
         <v>30</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H55" s="2">
         <v>40794</v>
